--- a/Cronograma.xlsx
+++ b/Cronograma.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\guill\OneDrive\Escritorio\Cuarto\TFG (CTC)\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\guill\OneDrive\Documentos\GitHub\TFG---IA-DE-PREDICCI-N-FOTOVOLTAICA\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E0223948-5221-40BB-BC1C-99AE741D0197}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{15C33273-0405-41E8-9946-538CD3F17961}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{484CA3C8-3C5E-4DD8-84DA-D9F18CB2C1F2}"/>
+    <workbookView xWindow="504" yWindow="1248" windowWidth="20352" windowHeight="10668" xr2:uid="{484CA3C8-3C5E-4DD8-84DA-D9F18CB2C1F2}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -241,6 +241,35 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="17" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="17" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="17" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -253,35 +282,6 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" indent="1"/>
     </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="17" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="17" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="17" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -618,8 +618,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DE070019-53EE-4844-AC8E-2EA67398FEB4}">
   <dimension ref="B4:AA28"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="88" zoomScaleNormal="88" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="B28" sqref="B28"/>
+    <sheetView tabSelected="1" zoomScale="88" zoomScaleNormal="88" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -714,46 +714,46 @@
       <c r="C5" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D5" s="21">
+      <c r="D5" s="19">
         <v>45964</v>
       </c>
-      <c r="E5" s="22"/>
-      <c r="F5" s="22"/>
-      <c r="G5" s="23"/>
-      <c r="H5" s="21">
+      <c r="E5" s="20"/>
+      <c r="F5" s="20"/>
+      <c r="G5" s="21"/>
+      <c r="H5" s="19">
         <v>45994</v>
       </c>
-      <c r="I5" s="22"/>
-      <c r="J5" s="22"/>
-      <c r="K5" s="23"/>
-      <c r="L5" s="21">
+      <c r="I5" s="20"/>
+      <c r="J5" s="20"/>
+      <c r="K5" s="21"/>
+      <c r="L5" s="19">
         <v>46025</v>
       </c>
-      <c r="M5" s="22"/>
-      <c r="N5" s="22"/>
-      <c r="O5" s="23"/>
-      <c r="P5" s="21">
+      <c r="M5" s="20"/>
+      <c r="N5" s="20"/>
+      <c r="O5" s="21"/>
+      <c r="P5" s="19">
         <v>46056</v>
       </c>
-      <c r="Q5" s="22"/>
-      <c r="R5" s="22"/>
-      <c r="S5" s="23"/>
-      <c r="T5" s="21">
+      <c r="Q5" s="20"/>
+      <c r="R5" s="20"/>
+      <c r="S5" s="21"/>
+      <c r="T5" s="19">
         <v>46084</v>
       </c>
-      <c r="U5" s="22"/>
-      <c r="V5" s="22"/>
-      <c r="W5" s="23"/>
-      <c r="X5" s="19" t="s">
+      <c r="U5" s="20"/>
+      <c r="V5" s="20"/>
+      <c r="W5" s="21"/>
+      <c r="X5" s="17" t="s">
         <v>9</v>
       </c>
-      <c r="Y5" s="20"/>
+      <c r="Y5" s="18"/>
     </row>
     <row r="6" spans="2:27" x14ac:dyDescent="0.3">
-      <c r="B6" s="16" t="s">
+      <c r="B6" s="27" t="s">
         <v>6</v>
       </c>
-      <c r="C6" s="16"/>
+      <c r="C6" s="27"/>
       <c r="D6" s="5"/>
       <c r="E6" s="5"/>
       <c r="F6" s="5"/>
@@ -778,11 +778,11 @@
       <c r="Y6" s="4"/>
     </row>
     <row r="7" spans="2:27" x14ac:dyDescent="0.3">
-      <c r="B7" s="18" t="s">
+      <c r="B7" s="29" t="s">
         <v>5</v>
       </c>
-      <c r="C7" s="18"/>
-      <c r="D7" s="7"/>
+      <c r="C7" s="29"/>
+      <c r="D7" s="5"/>
       <c r="F7" s="8"/>
       <c r="G7" s="9"/>
       <c r="H7" s="9"/>
@@ -805,12 +805,12 @@
       <c r="Y7" s="4"/>
     </row>
     <row r="8" spans="2:27" x14ac:dyDescent="0.3">
-      <c r="B8" s="18" t="s">
+      <c r="B8" s="29" t="s">
         <v>3</v>
       </c>
-      <c r="C8" s="18"/>
+      <c r="C8" s="29"/>
       <c r="D8" s="8"/>
-      <c r="E8" s="12"/>
+      <c r="E8" s="7"/>
       <c r="G8" s="9"/>
       <c r="H8" s="9"/>
       <c r="I8" s="9"/>
@@ -832,10 +832,10 @@
       <c r="Y8" s="4"/>
     </row>
     <row r="9" spans="2:27" x14ac:dyDescent="0.3">
-      <c r="B9" s="18" t="s">
+      <c r="B9" s="29" t="s">
         <v>7</v>
       </c>
-      <c r="C9" s="18"/>
+      <c r="C9" s="29"/>
       <c r="D9" s="8"/>
       <c r="E9" s="8"/>
       <c r="F9" s="12"/>
@@ -886,10 +886,10 @@
       <c r="Y10" s="4"/>
     </row>
     <row r="11" spans="2:27" x14ac:dyDescent="0.3">
-      <c r="B11" s="26" t="s">
+      <c r="B11" s="24" t="s">
         <v>4</v>
       </c>
-      <c r="C11" s="27"/>
+      <c r="C11" s="25"/>
       <c r="D11" s="3"/>
       <c r="E11" s="3"/>
       <c r="F11" s="3"/>
@@ -914,8 +914,8 @@
       <c r="Y11" s="4"/>
     </row>
     <row r="12" spans="2:27" x14ac:dyDescent="0.3">
-      <c r="B12" s="17"/>
-      <c r="C12" s="17"/>
+      <c r="B12" s="28"/>
+      <c r="C12" s="28"/>
       <c r="D12" s="8"/>
       <c r="E12" s="8"/>
       <c r="F12" s="8"/>
@@ -940,8 +940,8 @@
       <c r="Y12" s="4"/>
     </row>
     <row r="13" spans="2:27" x14ac:dyDescent="0.3">
-      <c r="B13" s="17"/>
-      <c r="C13" s="17"/>
+      <c r="B13" s="28"/>
+      <c r="C13" s="28"/>
       <c r="D13" s="8"/>
       <c r="E13" s="8"/>
       <c r="F13" s="8"/>
@@ -966,8 +966,8 @@
       <c r="Y13" s="4"/>
     </row>
     <row r="14" spans="2:27" x14ac:dyDescent="0.3">
-      <c r="B14" s="17"/>
-      <c r="C14" s="17"/>
+      <c r="B14" s="28"/>
+      <c r="C14" s="28"/>
       <c r="D14" s="8"/>
       <c r="E14" s="8"/>
       <c r="F14" s="8"/>
@@ -992,8 +992,8 @@
       <c r="Y14" s="4"/>
     </row>
     <row r="15" spans="2:27" x14ac:dyDescent="0.3">
-      <c r="B15" s="17"/>
-      <c r="C15" s="17"/>
+      <c r="B15" s="28"/>
+      <c r="C15" s="28"/>
       <c r="D15" s="8"/>
       <c r="E15" s="8"/>
       <c r="F15" s="8"/>
@@ -1018,10 +1018,10 @@
       <c r="Y15" s="4"/>
     </row>
     <row r="16" spans="2:27" x14ac:dyDescent="0.3">
-      <c r="B16" s="28" t="s">
+      <c r="B16" s="15" t="s">
         <v>10</v>
       </c>
-      <c r="C16" s="29"/>
+      <c r="C16" s="16"/>
       <c r="D16" s="8"/>
       <c r="E16" s="8"/>
       <c r="F16" s="8"/>
@@ -1046,8 +1046,8 @@
       <c r="Y16" s="4"/>
     </row>
     <row r="17" spans="2:25" x14ac:dyDescent="0.3">
-      <c r="B17" s="24"/>
-      <c r="C17" s="25"/>
+      <c r="B17" s="22"/>
+      <c r="C17" s="23"/>
       <c r="D17" s="8"/>
       <c r="E17" s="8"/>
       <c r="F17" s="8"/>
@@ -1072,8 +1072,8 @@
       <c r="Y17" s="4"/>
     </row>
     <row r="18" spans="2:25" x14ac:dyDescent="0.3">
-      <c r="B18" s="24"/>
-      <c r="C18" s="25"/>
+      <c r="B18" s="22"/>
+      <c r="C18" s="23"/>
       <c r="D18" s="8"/>
       <c r="E18" s="8"/>
       <c r="F18" s="8"/>
@@ -1098,8 +1098,8 @@
       <c r="Y18" s="4"/>
     </row>
     <row r="19" spans="2:25" x14ac:dyDescent="0.3">
-      <c r="B19" s="24"/>
-      <c r="C19" s="25"/>
+      <c r="B19" s="22"/>
+      <c r="C19" s="23"/>
       <c r="D19" s="8"/>
       <c r="E19" s="8"/>
       <c r="F19" s="8"/>
@@ -1124,8 +1124,8 @@
       <c r="Y19" s="4"/>
     </row>
     <row r="20" spans="2:25" x14ac:dyDescent="0.3">
-      <c r="B20" s="24"/>
-      <c r="C20" s="25"/>
+      <c r="B20" s="22"/>
+      <c r="C20" s="23"/>
       <c r="D20" s="8"/>
       <c r="E20" s="8"/>
       <c r="F20" s="8"/>
@@ -1150,8 +1150,8 @@
       <c r="Y20" s="4"/>
     </row>
     <row r="21" spans="2:25" x14ac:dyDescent="0.3">
-      <c r="B21" s="15"/>
-      <c r="C21" s="15"/>
+      <c r="B21" s="26"/>
+      <c r="C21" s="26"/>
       <c r="D21" s="8"/>
       <c r="E21" s="8"/>
       <c r="F21" s="8"/>
@@ -1176,10 +1176,10 @@
       <c r="Y21" s="4"/>
     </row>
     <row r="22" spans="2:25" x14ac:dyDescent="0.3">
-      <c r="B22" s="28" t="s">
+      <c r="B22" s="15" t="s">
         <v>11</v>
       </c>
-      <c r="C22" s="29"/>
+      <c r="C22" s="16"/>
       <c r="D22" s="8"/>
       <c r="E22" s="8"/>
       <c r="F22" s="8"/>
@@ -1204,8 +1204,8 @@
       <c r="Y22" s="4"/>
     </row>
     <row r="23" spans="2:25" x14ac:dyDescent="0.3">
-      <c r="B23" s="24"/>
-      <c r="C23" s="25"/>
+      <c r="B23" s="22"/>
+      <c r="C23" s="23"/>
       <c r="D23" s="8"/>
       <c r="E23" s="8"/>
       <c r="F23" s="8"/>
@@ -1230,8 +1230,8 @@
       <c r="Y23" s="4"/>
     </row>
     <row r="24" spans="2:25" x14ac:dyDescent="0.3">
-      <c r="B24" s="24"/>
-      <c r="C24" s="25"/>
+      <c r="B24" s="22"/>
+      <c r="C24" s="23"/>
       <c r="D24" s="8"/>
       <c r="E24" s="8"/>
       <c r="F24" s="8"/>
@@ -1256,8 +1256,8 @@
       <c r="Y24" s="4"/>
     </row>
     <row r="25" spans="2:25" x14ac:dyDescent="0.3">
-      <c r="B25" s="24"/>
-      <c r="C25" s="25"/>
+      <c r="B25" s="22"/>
+      <c r="C25" s="23"/>
       <c r="D25" s="8"/>
       <c r="E25" s="8"/>
       <c r="F25" s="8"/>
@@ -1282,8 +1282,8 @@
       <c r="Y25" s="4"/>
     </row>
     <row r="26" spans="2:25" x14ac:dyDescent="0.3">
-      <c r="B26" s="24"/>
-      <c r="C26" s="25"/>
+      <c r="B26" s="22"/>
+      <c r="C26" s="23"/>
       <c r="D26" s="8"/>
       <c r="E26" s="8"/>
       <c r="F26" s="8"/>
@@ -1308,8 +1308,8 @@
       <c r="Y26" s="4"/>
     </row>
     <row r="27" spans="2:25" x14ac:dyDescent="0.3">
-      <c r="B27" s="24"/>
-      <c r="C27" s="25"/>
+      <c r="B27" s="22"/>
+      <c r="C27" s="23"/>
       <c r="D27" s="8"/>
       <c r="E27" s="8"/>
       <c r="F27" s="8"/>
@@ -1361,6 +1361,17 @@
     </row>
   </sheetData>
   <mergeCells count="27">
+    <mergeCell ref="B11:C11"/>
+    <mergeCell ref="B21:C21"/>
+    <mergeCell ref="B6:C6"/>
+    <mergeCell ref="B12:C12"/>
+    <mergeCell ref="B13:C13"/>
+    <mergeCell ref="B14:C14"/>
+    <mergeCell ref="B15:C15"/>
+    <mergeCell ref="B7:C7"/>
+    <mergeCell ref="B8:C8"/>
+    <mergeCell ref="B9:C9"/>
+    <mergeCell ref="B16:C16"/>
     <mergeCell ref="B22:C22"/>
     <mergeCell ref="X5:Y5"/>
     <mergeCell ref="L5:O5"/>
@@ -1377,17 +1388,6 @@
     <mergeCell ref="D5:G5"/>
     <mergeCell ref="H5:K5"/>
     <mergeCell ref="T5:W5"/>
-    <mergeCell ref="B11:C11"/>
-    <mergeCell ref="B21:C21"/>
-    <mergeCell ref="B6:C6"/>
-    <mergeCell ref="B12:C12"/>
-    <mergeCell ref="B13:C13"/>
-    <mergeCell ref="B14:C14"/>
-    <mergeCell ref="B15:C15"/>
-    <mergeCell ref="B7:C7"/>
-    <mergeCell ref="B8:C8"/>
-    <mergeCell ref="B9:C9"/>
-    <mergeCell ref="B16:C16"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/Cronograma.xlsx
+++ b/Cronograma.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\guill\OneDrive\Documentos\GitHub\TFG---IA-DE-PREDICCI-N-FOTOVOLTAICA\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\guill\OneDrive\Escritorio\Cuarto\TFG (CTC)\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{15C33273-0405-41E8-9946-538CD3F17961}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EE683EA6-2E3E-4025-843C-45FD1CF57B46}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="504" yWindow="1248" windowWidth="20352" windowHeight="10668" xr2:uid="{484CA3C8-3C5E-4DD8-84DA-D9F18CB2C1F2}"/>
   </bookViews>
@@ -241,6 +241,24 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" indent="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
@@ -263,24 +281,6 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" indent="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -618,8 +618,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DE070019-53EE-4844-AC8E-2EA67398FEB4}">
   <dimension ref="B4:AA28"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="88" zoomScaleNormal="88" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
+    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="88" zoomScaleNormal="88" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="I16" sqref="I16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -714,46 +714,46 @@
       <c r="C5" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D5" s="19">
+      <c r="D5" s="25">
         <v>45964</v>
       </c>
-      <c r="E5" s="20"/>
-      <c r="F5" s="20"/>
-      <c r="G5" s="21"/>
-      <c r="H5" s="19">
+      <c r="E5" s="26"/>
+      <c r="F5" s="26"/>
+      <c r="G5" s="27"/>
+      <c r="H5" s="25">
         <v>45994</v>
       </c>
-      <c r="I5" s="20"/>
-      <c r="J5" s="20"/>
-      <c r="K5" s="21"/>
-      <c r="L5" s="19">
+      <c r="I5" s="26"/>
+      <c r="J5" s="26"/>
+      <c r="K5" s="27"/>
+      <c r="L5" s="25">
         <v>46025</v>
       </c>
-      <c r="M5" s="20"/>
-      <c r="N5" s="20"/>
-      <c r="O5" s="21"/>
-      <c r="P5" s="19">
+      <c r="M5" s="26"/>
+      <c r="N5" s="26"/>
+      <c r="O5" s="27"/>
+      <c r="P5" s="25">
         <v>46056</v>
       </c>
-      <c r="Q5" s="20"/>
-      <c r="R5" s="20"/>
-      <c r="S5" s="21"/>
-      <c r="T5" s="19">
+      <c r="Q5" s="26"/>
+      <c r="R5" s="26"/>
+      <c r="S5" s="27"/>
+      <c r="T5" s="25">
         <v>46084</v>
       </c>
-      <c r="U5" s="20"/>
-      <c r="V5" s="20"/>
-      <c r="W5" s="21"/>
-      <c r="X5" s="17" t="s">
+      <c r="U5" s="26"/>
+      <c r="V5" s="26"/>
+      <c r="W5" s="27"/>
+      <c r="X5" s="23" t="s">
         <v>9</v>
       </c>
-      <c r="Y5" s="18"/>
+      <c r="Y5" s="24"/>
     </row>
     <row r="6" spans="2:27" x14ac:dyDescent="0.3">
-      <c r="B6" s="27" t="s">
+      <c r="B6" s="18" t="s">
         <v>6</v>
       </c>
-      <c r="C6" s="27"/>
+      <c r="C6" s="18"/>
       <c r="D6" s="5"/>
       <c r="E6" s="5"/>
       <c r="F6" s="5"/>
@@ -778,10 +778,10 @@
       <c r="Y6" s="4"/>
     </row>
     <row r="7" spans="2:27" x14ac:dyDescent="0.3">
-      <c r="B7" s="29" t="s">
+      <c r="B7" s="20" t="s">
         <v>5</v>
       </c>
-      <c r="C7" s="29"/>
+      <c r="C7" s="20"/>
       <c r="D7" s="5"/>
       <c r="F7" s="8"/>
       <c r="G7" s="9"/>
@@ -805,10 +805,10 @@
       <c r="Y7" s="4"/>
     </row>
     <row r="8" spans="2:27" x14ac:dyDescent="0.3">
-      <c r="B8" s="29" t="s">
+      <c r="B8" s="20" t="s">
         <v>3</v>
       </c>
-      <c r="C8" s="29"/>
+      <c r="C8" s="20"/>
       <c r="D8" s="8"/>
       <c r="E8" s="7"/>
       <c r="G8" s="9"/>
@@ -832,10 +832,10 @@
       <c r="Y8" s="4"/>
     </row>
     <row r="9" spans="2:27" x14ac:dyDescent="0.3">
-      <c r="B9" s="29" t="s">
+      <c r="B9" s="20" t="s">
         <v>7</v>
       </c>
-      <c r="C9" s="29"/>
+      <c r="C9" s="20"/>
       <c r="D9" s="8"/>
       <c r="E9" s="8"/>
       <c r="F9" s="12"/>
@@ -886,10 +886,10 @@
       <c r="Y10" s="4"/>
     </row>
     <row r="11" spans="2:27" x14ac:dyDescent="0.3">
-      <c r="B11" s="24" t="s">
+      <c r="B11" s="15" t="s">
         <v>4</v>
       </c>
-      <c r="C11" s="25"/>
+      <c r="C11" s="16"/>
       <c r="D11" s="3"/>
       <c r="E11" s="3"/>
       <c r="F11" s="3"/>
@@ -914,8 +914,8 @@
       <c r="Y11" s="4"/>
     </row>
     <row r="12" spans="2:27" x14ac:dyDescent="0.3">
-      <c r="B12" s="28"/>
-      <c r="C12" s="28"/>
+      <c r="B12" s="19"/>
+      <c r="C12" s="19"/>
       <c r="D12" s="8"/>
       <c r="E12" s="8"/>
       <c r="F12" s="8"/>
@@ -940,8 +940,8 @@
       <c r="Y12" s="4"/>
     </row>
     <row r="13" spans="2:27" x14ac:dyDescent="0.3">
-      <c r="B13" s="28"/>
-      <c r="C13" s="28"/>
+      <c r="B13" s="19"/>
+      <c r="C13" s="19"/>
       <c r="D13" s="8"/>
       <c r="E13" s="8"/>
       <c r="F13" s="8"/>
@@ -966,8 +966,8 @@
       <c r="Y13" s="4"/>
     </row>
     <row r="14" spans="2:27" x14ac:dyDescent="0.3">
-      <c r="B14" s="28"/>
-      <c r="C14" s="28"/>
+      <c r="B14" s="19"/>
+      <c r="C14" s="19"/>
       <c r="D14" s="8"/>
       <c r="E14" s="8"/>
       <c r="F14" s="8"/>
@@ -992,8 +992,8 @@
       <c r="Y14" s="4"/>
     </row>
     <row r="15" spans="2:27" x14ac:dyDescent="0.3">
-      <c r="B15" s="28"/>
-      <c r="C15" s="28"/>
+      <c r="B15" s="19"/>
+      <c r="C15" s="19"/>
       <c r="D15" s="8"/>
       <c r="E15" s="8"/>
       <c r="F15" s="8"/>
@@ -1018,10 +1018,10 @@
       <c r="Y15" s="4"/>
     </row>
     <row r="16" spans="2:27" x14ac:dyDescent="0.3">
-      <c r="B16" s="15" t="s">
+      <c r="B16" s="21" t="s">
         <v>10</v>
       </c>
-      <c r="C16" s="16"/>
+      <c r="C16" s="22"/>
       <c r="D16" s="8"/>
       <c r="E16" s="8"/>
       <c r="F16" s="8"/>
@@ -1046,8 +1046,8 @@
       <c r="Y16" s="4"/>
     </row>
     <row r="17" spans="2:25" x14ac:dyDescent="0.3">
-      <c r="B17" s="22"/>
-      <c r="C17" s="23"/>
+      <c r="B17" s="28"/>
+      <c r="C17" s="29"/>
       <c r="D17" s="8"/>
       <c r="E17" s="8"/>
       <c r="F17" s="8"/>
@@ -1072,8 +1072,8 @@
       <c r="Y17" s="4"/>
     </row>
     <row r="18" spans="2:25" x14ac:dyDescent="0.3">
-      <c r="B18" s="22"/>
-      <c r="C18" s="23"/>
+      <c r="B18" s="28"/>
+      <c r="C18" s="29"/>
       <c r="D18" s="8"/>
       <c r="E18" s="8"/>
       <c r="F18" s="8"/>
@@ -1098,8 +1098,8 @@
       <c r="Y18" s="4"/>
     </row>
     <row r="19" spans="2:25" x14ac:dyDescent="0.3">
-      <c r="B19" s="22"/>
-      <c r="C19" s="23"/>
+      <c r="B19" s="28"/>
+      <c r="C19" s="29"/>
       <c r="D19" s="8"/>
       <c r="E19" s="8"/>
       <c r="F19" s="8"/>
@@ -1124,8 +1124,8 @@
       <c r="Y19" s="4"/>
     </row>
     <row r="20" spans="2:25" x14ac:dyDescent="0.3">
-      <c r="B20" s="22"/>
-      <c r="C20" s="23"/>
+      <c r="B20" s="28"/>
+      <c r="C20" s="29"/>
       <c r="D20" s="8"/>
       <c r="E20" s="8"/>
       <c r="F20" s="8"/>
@@ -1150,8 +1150,8 @@
       <c r="Y20" s="4"/>
     </row>
     <row r="21" spans="2:25" x14ac:dyDescent="0.3">
-      <c r="B21" s="26"/>
-      <c r="C21" s="26"/>
+      <c r="B21" s="17"/>
+      <c r="C21" s="17"/>
       <c r="D21" s="8"/>
       <c r="E21" s="8"/>
       <c r="F21" s="8"/>
@@ -1176,10 +1176,10 @@
       <c r="Y21" s="4"/>
     </row>
     <row r="22" spans="2:25" x14ac:dyDescent="0.3">
-      <c r="B22" s="15" t="s">
+      <c r="B22" s="21" t="s">
         <v>11</v>
       </c>
-      <c r="C22" s="16"/>
+      <c r="C22" s="22"/>
       <c r="D22" s="8"/>
       <c r="E22" s="8"/>
       <c r="F22" s="8"/>
@@ -1204,8 +1204,8 @@
       <c r="Y22" s="4"/>
     </row>
     <row r="23" spans="2:25" x14ac:dyDescent="0.3">
-      <c r="B23" s="22"/>
-      <c r="C23" s="23"/>
+      <c r="B23" s="28"/>
+      <c r="C23" s="29"/>
       <c r="D23" s="8"/>
       <c r="E23" s="8"/>
       <c r="F23" s="8"/>
@@ -1230,8 +1230,8 @@
       <c r="Y23" s="4"/>
     </row>
     <row r="24" spans="2:25" x14ac:dyDescent="0.3">
-      <c r="B24" s="22"/>
-      <c r="C24" s="23"/>
+      <c r="B24" s="28"/>
+      <c r="C24" s="29"/>
       <c r="D24" s="8"/>
       <c r="E24" s="8"/>
       <c r="F24" s="8"/>
@@ -1256,8 +1256,8 @@
       <c r="Y24" s="4"/>
     </row>
     <row r="25" spans="2:25" x14ac:dyDescent="0.3">
-      <c r="B25" s="22"/>
-      <c r="C25" s="23"/>
+      <c r="B25" s="28"/>
+      <c r="C25" s="29"/>
       <c r="D25" s="8"/>
       <c r="E25" s="8"/>
       <c r="F25" s="8"/>
@@ -1282,8 +1282,8 @@
       <c r="Y25" s="4"/>
     </row>
     <row r="26" spans="2:25" x14ac:dyDescent="0.3">
-      <c r="B26" s="22"/>
-      <c r="C26" s="23"/>
+      <c r="B26" s="28"/>
+      <c r="C26" s="29"/>
       <c r="D26" s="8"/>
       <c r="E26" s="8"/>
       <c r="F26" s="8"/>
@@ -1308,8 +1308,8 @@
       <c r="Y26" s="4"/>
     </row>
     <row r="27" spans="2:25" x14ac:dyDescent="0.3">
-      <c r="B27" s="22"/>
-      <c r="C27" s="23"/>
+      <c r="B27" s="28"/>
+      <c r="C27" s="29"/>
       <c r="D27" s="8"/>
       <c r="E27" s="8"/>
       <c r="F27" s="8"/>
@@ -1361,17 +1361,6 @@
     </row>
   </sheetData>
   <mergeCells count="27">
-    <mergeCell ref="B11:C11"/>
-    <mergeCell ref="B21:C21"/>
-    <mergeCell ref="B6:C6"/>
-    <mergeCell ref="B12:C12"/>
-    <mergeCell ref="B13:C13"/>
-    <mergeCell ref="B14:C14"/>
-    <mergeCell ref="B15:C15"/>
-    <mergeCell ref="B7:C7"/>
-    <mergeCell ref="B8:C8"/>
-    <mergeCell ref="B9:C9"/>
-    <mergeCell ref="B16:C16"/>
     <mergeCell ref="B22:C22"/>
     <mergeCell ref="X5:Y5"/>
     <mergeCell ref="L5:O5"/>
@@ -1388,6 +1377,17 @@
     <mergeCell ref="D5:G5"/>
     <mergeCell ref="H5:K5"/>
     <mergeCell ref="T5:W5"/>
+    <mergeCell ref="B11:C11"/>
+    <mergeCell ref="B21:C21"/>
+    <mergeCell ref="B6:C6"/>
+    <mergeCell ref="B12:C12"/>
+    <mergeCell ref="B13:C13"/>
+    <mergeCell ref="B14:C14"/>
+    <mergeCell ref="B15:C15"/>
+    <mergeCell ref="B7:C7"/>
+    <mergeCell ref="B8:C8"/>
+    <mergeCell ref="B9:C9"/>
+    <mergeCell ref="B16:C16"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/Cronograma.xlsx
+++ b/Cronograma.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\guill\OneDrive\Escritorio\Cuarto\TFG (CTC)\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EE683EA6-2E3E-4025-843C-45FD1CF57B46}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2069F049-CFB8-4C82-8B2D-CD218B3A4208}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="504" yWindow="1248" windowWidth="20352" windowHeight="10668" xr2:uid="{484CA3C8-3C5E-4DD8-84DA-D9F18CB2C1F2}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{484CA3C8-3C5E-4DD8-84DA-D9F18CB2C1F2}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -217,9 +217,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
@@ -236,11 +233,37 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="14" fontId="0" fillId="5" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="17" fontId="0" fillId="5" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="17" fontId="0" fillId="5" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="17" fontId="0" fillId="5" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -258,29 +281,6 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="17" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="17" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="17" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -618,8 +618,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DE070019-53EE-4844-AC8E-2EA67398FEB4}">
   <dimension ref="B4:AA28"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="88" zoomScaleNormal="88" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="I16" sqref="I16"/>
+    <sheetView tabSelected="1" topLeftCell="A3" zoomScale="88" zoomScaleNormal="88" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="F20" sqref="F20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -635,732 +635,743 @@
   </cols>
   <sheetData>
     <row r="4" spans="2:27" x14ac:dyDescent="0.3">
-      <c r="C4" s="2" t="s">
+      <c r="C4" s="14" t="s">
         <v>0</v>
       </c>
-      <c r="D4" s="3">
+      <c r="D4" s="13">
         <v>1</v>
       </c>
-      <c r="E4" s="3">
+      <c r="E4" s="13">
         <v>2</v>
       </c>
-      <c r="F4" s="3">
+      <c r="F4" s="13">
         <v>3</v>
       </c>
-      <c r="G4" s="3">
+      <c r="G4" s="13">
         <v>4</v>
       </c>
-      <c r="H4" s="3">
+      <c r="H4" s="13">
         <v>5</v>
       </c>
-      <c r="I4" s="3">
+      <c r="I4" s="13">
         <v>6</v>
       </c>
-      <c r="J4" s="3">
+      <c r="J4" s="13">
         <v>7</v>
       </c>
-      <c r="K4" s="8">
+      <c r="K4" s="13">
         <v>8</v>
       </c>
-      <c r="L4" s="3">
+      <c r="L4" s="13">
         <v>9</v>
       </c>
-      <c r="M4" s="3">
+      <c r="M4" s="13">
         <v>10</v>
       </c>
-      <c r="N4" s="3">
+      <c r="N4" s="13">
         <v>11</v>
       </c>
-      <c r="O4" s="3">
+      <c r="O4" s="13">
         <v>12</v>
       </c>
-      <c r="P4" s="3">
+      <c r="P4" s="13">
         <v>13</v>
       </c>
-      <c r="Q4" s="3">
+      <c r="Q4" s="13">
         <v>14</v>
       </c>
-      <c r="R4" s="3">
+      <c r="R4" s="13">
         <v>15</v>
       </c>
-      <c r="S4" s="3">
+      <c r="S4" s="13">
         <v>16</v>
       </c>
-      <c r="T4" s="3">
+      <c r="T4" s="13">
         <v>17</v>
       </c>
-      <c r="U4" s="3">
+      <c r="U4" s="13">
         <v>18</v>
       </c>
-      <c r="V4" s="3">
+      <c r="V4" s="13">
         <v>19</v>
       </c>
-      <c r="W4" s="3">
+      <c r="W4" s="13">
         <v>20</v>
       </c>
-      <c r="X4" s="3">
+      <c r="X4" s="13">
         <v>21</v>
       </c>
-      <c r="Y4" s="3">
+      <c r="Y4" s="13">
         <v>22</v>
       </c>
       <c r="Z4" s="1"/>
       <c r="AA4" s="1"/>
     </row>
     <row r="5" spans="2:27" x14ac:dyDescent="0.3">
-      <c r="B5" s="4" t="s">
+      <c r="B5" s="11" t="s">
         <v>1</v>
       </c>
-      <c r="C5" s="3" t="s">
+      <c r="C5" s="13" t="s">
         <v>2</v>
       </c>
-      <c r="D5" s="25">
+      <c r="D5" s="19">
         <v>45964</v>
       </c>
-      <c r="E5" s="26"/>
-      <c r="F5" s="26"/>
-      <c r="G5" s="27"/>
-      <c r="H5" s="25">
+      <c r="E5" s="20"/>
+      <c r="F5" s="20"/>
+      <c r="G5" s="21"/>
+      <c r="H5" s="19">
         <v>45994</v>
       </c>
-      <c r="I5" s="26"/>
-      <c r="J5" s="26"/>
-      <c r="K5" s="27"/>
-      <c r="L5" s="25">
+      <c r="I5" s="20"/>
+      <c r="J5" s="20"/>
+      <c r="K5" s="21"/>
+      <c r="L5" s="19">
         <v>46025</v>
       </c>
-      <c r="M5" s="26"/>
-      <c r="N5" s="26"/>
-      <c r="O5" s="27"/>
-      <c r="P5" s="25">
+      <c r="M5" s="20"/>
+      <c r="N5" s="20"/>
+      <c r="O5" s="21"/>
+      <c r="P5" s="19">
         <v>46056</v>
       </c>
-      <c r="Q5" s="26"/>
-      <c r="R5" s="26"/>
-      <c r="S5" s="27"/>
-      <c r="T5" s="25">
+      <c r="Q5" s="20"/>
+      <c r="R5" s="20"/>
+      <c r="S5" s="21"/>
+      <c r="T5" s="19">
         <v>46084</v>
       </c>
-      <c r="U5" s="26"/>
-      <c r="V5" s="26"/>
-      <c r="W5" s="27"/>
-      <c r="X5" s="23" t="s">
+      <c r="U5" s="20"/>
+      <c r="V5" s="20"/>
+      <c r="W5" s="21"/>
+      <c r="X5" s="17" t="s">
         <v>9</v>
       </c>
-      <c r="Y5" s="24"/>
+      <c r="Y5" s="18"/>
     </row>
     <row r="6" spans="2:27" x14ac:dyDescent="0.3">
-      <c r="B6" s="18" t="s">
+      <c r="B6" s="27" t="s">
         <v>6</v>
       </c>
-      <c r="C6" s="18"/>
-      <c r="D6" s="5"/>
-      <c r="E6" s="5"/>
-      <c r="F6" s="5"/>
-      <c r="G6" s="6"/>
-      <c r="H6" s="9"/>
-      <c r="I6" s="9"/>
-      <c r="J6" s="9"/>
-      <c r="K6" s="4"/>
-      <c r="L6" s="4"/>
-      <c r="M6" s="4"/>
-      <c r="N6" s="4"/>
-      <c r="O6" s="4"/>
-      <c r="P6" s="4"/>
-      <c r="Q6" s="4"/>
-      <c r="R6" s="4"/>
-      <c r="S6" s="4"/>
-      <c r="T6" s="4"/>
-      <c r="U6" s="4"/>
-      <c r="V6" s="4"/>
-      <c r="W6" s="4"/>
-      <c r="X6" s="4"/>
-      <c r="Y6" s="4"/>
+      <c r="C6" s="27"/>
+      <c r="D6" s="4"/>
+      <c r="E6" s="4"/>
+      <c r="F6" s="4"/>
+      <c r="G6" s="5"/>
+      <c r="H6" s="8"/>
+      <c r="I6" s="8"/>
+      <c r="J6" s="8"/>
+      <c r="K6" s="3"/>
+      <c r="L6" s="3"/>
+      <c r="M6" s="3"/>
+      <c r="N6" s="3"/>
+      <c r="O6" s="3"/>
+      <c r="P6" s="3"/>
+      <c r="Q6" s="3"/>
+      <c r="R6" s="3"/>
+      <c r="S6" s="3"/>
+      <c r="T6" s="3"/>
+      <c r="U6" s="3"/>
+      <c r="V6" s="3"/>
+      <c r="W6" s="3"/>
+      <c r="X6" s="3"/>
+      <c r="Y6" s="3"/>
     </row>
     <row r="7" spans="2:27" x14ac:dyDescent="0.3">
-      <c r="B7" s="20" t="s">
+      <c r="B7" s="29" t="s">
         <v>5</v>
       </c>
-      <c r="C7" s="20"/>
-      <c r="D7" s="5"/>
-      <c r="F7" s="8"/>
-      <c r="G7" s="9"/>
-      <c r="H7" s="9"/>
-      <c r="I7" s="9"/>
-      <c r="J7" s="9"/>
-      <c r="K7" s="4"/>
-      <c r="L7" s="4"/>
-      <c r="M7" s="4"/>
-      <c r="N7" s="4"/>
-      <c r="O7" s="4"/>
-      <c r="P7" s="4"/>
-      <c r="Q7" s="4"/>
-      <c r="R7" s="4"/>
-      <c r="S7" s="4"/>
-      <c r="T7" s="4"/>
-      <c r="U7" s="4"/>
-      <c r="V7" s="4"/>
-      <c r="W7" s="4"/>
-      <c r="X7" s="4"/>
-      <c r="Y7" s="4"/>
+      <c r="C7" s="29"/>
+      <c r="D7" s="4"/>
+      <c r="F7" s="7"/>
+      <c r="G7" s="8"/>
+      <c r="H7" s="8"/>
+      <c r="I7" s="8"/>
+      <c r="J7" s="8"/>
+      <c r="K7" s="3"/>
+      <c r="L7" s="3"/>
+      <c r="M7" s="3"/>
+      <c r="N7" s="3"/>
+      <c r="O7" s="3"/>
+      <c r="P7" s="3"/>
+      <c r="Q7" s="3"/>
+      <c r="R7" s="3"/>
+      <c r="S7" s="3"/>
+      <c r="T7" s="3"/>
+      <c r="U7" s="3"/>
+      <c r="V7" s="3"/>
+      <c r="W7" s="3"/>
+      <c r="X7" s="3"/>
+      <c r="Y7" s="3"/>
     </row>
     <row r="8" spans="2:27" x14ac:dyDescent="0.3">
-      <c r="B8" s="20" t="s">
+      <c r="B8" s="29" t="s">
         <v>3</v>
       </c>
-      <c r="C8" s="20"/>
-      <c r="D8" s="8"/>
-      <c r="E8" s="7"/>
-      <c r="G8" s="9"/>
-      <c r="H8" s="9"/>
-      <c r="I8" s="9"/>
-      <c r="J8" s="9"/>
-      <c r="K8" s="4"/>
-      <c r="L8" s="4"/>
-      <c r="M8" s="4"/>
-      <c r="N8" s="4"/>
-      <c r="O8" s="4"/>
-      <c r="P8" s="4"/>
-      <c r="Q8" s="4"/>
-      <c r="R8" s="4"/>
-      <c r="S8" s="4"/>
-      <c r="T8" s="4"/>
-      <c r="U8" s="4"/>
-      <c r="V8" s="4"/>
-      <c r="W8" s="4"/>
-      <c r="X8" s="4"/>
-      <c r="Y8" s="4"/>
+      <c r="C8" s="29"/>
+      <c r="D8" s="7"/>
+      <c r="E8" s="4"/>
+      <c r="G8" s="8"/>
+      <c r="H8" s="8"/>
+      <c r="I8" s="8"/>
+      <c r="J8" s="8"/>
+      <c r="K8" s="3"/>
+      <c r="L8" s="3"/>
+      <c r="M8" s="3"/>
+      <c r="N8" s="3"/>
+      <c r="O8" s="3"/>
+      <c r="P8" s="3"/>
+      <c r="Q8" s="3"/>
+      <c r="R8" s="3"/>
+      <c r="S8" s="3"/>
+      <c r="T8" s="3"/>
+      <c r="U8" s="3"/>
+      <c r="V8" s="3"/>
+      <c r="W8" s="3"/>
+      <c r="X8" s="3"/>
+      <c r="Y8" s="3"/>
     </row>
     <row r="9" spans="2:27" x14ac:dyDescent="0.3">
-      <c r="B9" s="20" t="s">
+      <c r="B9" s="29" t="s">
         <v>7</v>
       </c>
-      <c r="C9" s="20"/>
-      <c r="D9" s="8"/>
-      <c r="E9" s="8"/>
-      <c r="F9" s="12"/>
-      <c r="H9" s="9"/>
-      <c r="I9" s="9"/>
-      <c r="J9" s="9"/>
-      <c r="K9" s="4"/>
-      <c r="L9" s="4"/>
-      <c r="M9" s="4"/>
-      <c r="N9" s="4"/>
-      <c r="O9" s="4"/>
-      <c r="P9" s="4"/>
-      <c r="Q9" s="4"/>
-      <c r="R9" s="4"/>
-      <c r="S9" s="4"/>
-      <c r="T9" s="4"/>
-      <c r="U9" s="4"/>
-      <c r="V9" s="4"/>
-      <c r="W9" s="4"/>
-      <c r="X9" s="4"/>
-      <c r="Y9" s="4"/>
+      <c r="C9" s="29"/>
+      <c r="D9" s="7"/>
+      <c r="E9" s="7"/>
+      <c r="F9" s="4"/>
+      <c r="H9" s="8"/>
+      <c r="I9" s="8"/>
+      <c r="J9" s="8"/>
+      <c r="K9" s="3"/>
+      <c r="L9" s="3"/>
+      <c r="M9" s="3"/>
+      <c r="N9" s="3"/>
+      <c r="O9" s="3"/>
+      <c r="P9" s="3"/>
+      <c r="Q9" s="3"/>
+      <c r="R9" s="3"/>
+      <c r="S9" s="3"/>
+      <c r="T9" s="3"/>
+      <c r="U9" s="3"/>
+      <c r="V9" s="3"/>
+      <c r="W9" s="3"/>
+      <c r="X9" s="3"/>
+      <c r="Y9" s="3"/>
     </row>
     <row r="10" spans="2:27" x14ac:dyDescent="0.3">
-      <c r="B10" s="14" t="s">
+      <c r="B10" s="12" t="s">
         <v>8</v>
       </c>
-      <c r="D10" s="8"/>
-      <c r="E10" s="8"/>
-      <c r="F10" s="8"/>
-      <c r="G10" s="13"/>
-      <c r="H10" s="4"/>
-      <c r="I10" s="4"/>
-      <c r="J10" s="4"/>
-      <c r="K10" s="4"/>
-      <c r="L10" s="4"/>
-      <c r="M10" s="4"/>
-      <c r="N10" s="4"/>
-      <c r="O10" s="4"/>
-      <c r="P10" s="4"/>
-      <c r="Q10" s="4"/>
-      <c r="R10" s="4"/>
-      <c r="S10" s="4"/>
-      <c r="T10" s="4"/>
-      <c r="U10" s="4"/>
-      <c r="V10" s="4"/>
-      <c r="W10" s="4"/>
-      <c r="X10" s="4"/>
-      <c r="Y10" s="4"/>
+      <c r="D10" s="7"/>
+      <c r="E10" s="7"/>
+      <c r="F10" s="7"/>
+      <c r="G10" s="6"/>
+      <c r="H10" s="3"/>
+      <c r="I10" s="3"/>
+      <c r="J10" s="3"/>
+      <c r="K10" s="3"/>
+      <c r="L10" s="3"/>
+      <c r="M10" s="3"/>
+      <c r="N10" s="3"/>
+      <c r="O10" s="3"/>
+      <c r="P10" s="3"/>
+      <c r="Q10" s="3"/>
+      <c r="R10" s="3"/>
+      <c r="S10" s="3"/>
+      <c r="T10" s="3"/>
+      <c r="U10" s="3"/>
+      <c r="V10" s="3"/>
+      <c r="W10" s="3"/>
+      <c r="X10" s="3"/>
+      <c r="Y10" s="3"/>
     </row>
     <row r="11" spans="2:27" x14ac:dyDescent="0.3">
-      <c r="B11" s="15" t="s">
+      <c r="B11" s="24" t="s">
         <v>4</v>
       </c>
-      <c r="C11" s="16"/>
-      <c r="D11" s="3"/>
-      <c r="E11" s="3"/>
-      <c r="F11" s="3"/>
-      <c r="G11" s="4"/>
-      <c r="H11" s="6"/>
-      <c r="I11" s="6"/>
-      <c r="J11" s="6"/>
-      <c r="K11" s="6"/>
-      <c r="L11" s="6"/>
-      <c r="M11" s="6"/>
-      <c r="N11" s="6"/>
-      <c r="O11" s="6"/>
-      <c r="P11" s="4"/>
-      <c r="Q11" s="4"/>
-      <c r="R11" s="4"/>
-      <c r="S11" s="4"/>
-      <c r="T11" s="4"/>
-      <c r="U11" s="4"/>
-      <c r="V11" s="4"/>
-      <c r="W11" s="4"/>
-      <c r="X11" s="4"/>
-      <c r="Y11" s="4"/>
+      <c r="C11" s="25"/>
+      <c r="D11" s="2"/>
+      <c r="E11" s="2"/>
+      <c r="F11" s="2"/>
+      <c r="G11" s="3"/>
+      <c r="H11" s="5"/>
+      <c r="I11" s="5"/>
+      <c r="J11" s="5"/>
+      <c r="K11" s="5"/>
+      <c r="L11" s="5"/>
+      <c r="M11" s="5"/>
+      <c r="N11" s="5"/>
+      <c r="O11" s="5"/>
+      <c r="P11" s="3"/>
+      <c r="Q11" s="3"/>
+      <c r="R11" s="3"/>
+      <c r="S11" s="3"/>
+      <c r="T11" s="3"/>
+      <c r="U11" s="3"/>
+      <c r="V11" s="3"/>
+      <c r="W11" s="3"/>
+      <c r="X11" s="3"/>
+      <c r="Y11" s="3"/>
     </row>
     <row r="12" spans="2:27" x14ac:dyDescent="0.3">
-      <c r="B12" s="19"/>
-      <c r="C12" s="19"/>
-      <c r="D12" s="8"/>
-      <c r="E12" s="8"/>
-      <c r="F12" s="8"/>
-      <c r="G12" s="9"/>
-      <c r="H12" s="8"/>
-      <c r="I12" s="8"/>
-      <c r="J12" s="8"/>
-      <c r="K12" s="9"/>
-      <c r="L12" s="8"/>
-      <c r="M12" s="8"/>
-      <c r="N12" s="8"/>
-      <c r="O12" s="9"/>
-      <c r="P12" s="9"/>
-      <c r="Q12" s="9"/>
-      <c r="R12" s="9"/>
-      <c r="S12" s="9"/>
-      <c r="T12" s="9"/>
-      <c r="U12" s="9"/>
-      <c r="V12" s="9"/>
-      <c r="W12" s="9"/>
-      <c r="X12" s="4"/>
-      <c r="Y12" s="4"/>
+      <c r="B12" s="28"/>
+      <c r="C12" s="28"/>
+      <c r="D12" s="7"/>
+      <c r="E12" s="7"/>
+      <c r="F12" s="7"/>
+      <c r="G12" s="8"/>
+      <c r="H12" s="7"/>
+      <c r="I12" s="7"/>
+      <c r="J12" s="7"/>
+      <c r="K12" s="8"/>
+      <c r="L12" s="7"/>
+      <c r="M12" s="7"/>
+      <c r="N12" s="7"/>
+      <c r="O12" s="8"/>
+      <c r="P12" s="8"/>
+      <c r="Q12" s="8"/>
+      <c r="R12" s="8"/>
+      <c r="S12" s="8"/>
+      <c r="T12" s="8"/>
+      <c r="U12" s="8"/>
+      <c r="V12" s="8"/>
+      <c r="W12" s="8"/>
+      <c r="X12" s="3"/>
+      <c r="Y12" s="3"/>
     </row>
     <row r="13" spans="2:27" x14ac:dyDescent="0.3">
-      <c r="B13" s="19"/>
-      <c r="C13" s="19"/>
-      <c r="D13" s="8"/>
-      <c r="E13" s="8"/>
-      <c r="F13" s="8"/>
-      <c r="G13" s="9"/>
-      <c r="H13" s="8"/>
-      <c r="I13" s="8"/>
-      <c r="J13" s="8"/>
-      <c r="K13" s="9"/>
-      <c r="L13" s="8"/>
-      <c r="M13" s="8"/>
-      <c r="N13" s="8"/>
-      <c r="O13" s="9"/>
-      <c r="P13" s="9"/>
-      <c r="Q13" s="9"/>
-      <c r="R13" s="9"/>
-      <c r="S13" s="9"/>
-      <c r="T13" s="9"/>
-      <c r="U13" s="9"/>
-      <c r="V13" s="9"/>
-      <c r="W13" s="9"/>
-      <c r="X13" s="4"/>
-      <c r="Y13" s="4"/>
+      <c r="B13" s="28"/>
+      <c r="C13" s="28"/>
+      <c r="D13" s="7"/>
+      <c r="E13" s="7"/>
+      <c r="F13" s="7"/>
+      <c r="G13" s="8"/>
+      <c r="H13" s="7"/>
+      <c r="I13" s="7"/>
+      <c r="J13" s="7"/>
+      <c r="K13" s="8"/>
+      <c r="L13" s="7"/>
+      <c r="M13" s="7"/>
+      <c r="N13" s="7"/>
+      <c r="O13" s="8"/>
+      <c r="P13" s="8"/>
+      <c r="Q13" s="8"/>
+      <c r="R13" s="8"/>
+      <c r="S13" s="8"/>
+      <c r="T13" s="8"/>
+      <c r="U13" s="8"/>
+      <c r="V13" s="8"/>
+      <c r="W13" s="8"/>
+      <c r="X13" s="3"/>
+      <c r="Y13" s="3"/>
     </row>
     <row r="14" spans="2:27" x14ac:dyDescent="0.3">
-      <c r="B14" s="19"/>
-      <c r="C14" s="19"/>
-      <c r="D14" s="8"/>
-      <c r="E14" s="8"/>
-      <c r="F14" s="8"/>
-      <c r="G14" s="9"/>
-      <c r="H14" s="8"/>
-      <c r="I14" s="8"/>
-      <c r="J14" s="8"/>
-      <c r="K14" s="9"/>
-      <c r="L14" s="8"/>
-      <c r="M14" s="8"/>
-      <c r="N14" s="8"/>
-      <c r="O14" s="9"/>
-      <c r="P14" s="9"/>
-      <c r="Q14" s="9"/>
-      <c r="R14" s="9"/>
-      <c r="S14" s="9"/>
-      <c r="T14" s="9"/>
-      <c r="U14" s="9"/>
-      <c r="V14" s="9"/>
-      <c r="W14" s="9"/>
-      <c r="X14" s="4"/>
-      <c r="Y14" s="4"/>
+      <c r="B14" s="28"/>
+      <c r="C14" s="28"/>
+      <c r="D14" s="7"/>
+      <c r="E14" s="7"/>
+      <c r="F14" s="7"/>
+      <c r="G14" s="8"/>
+      <c r="H14" s="7"/>
+      <c r="I14" s="7"/>
+      <c r="J14" s="7"/>
+      <c r="K14" s="8"/>
+      <c r="L14" s="7"/>
+      <c r="M14" s="7"/>
+      <c r="N14" s="7"/>
+      <c r="O14" s="8"/>
+      <c r="P14" s="8"/>
+      <c r="Q14" s="8"/>
+      <c r="R14" s="8"/>
+      <c r="S14" s="8"/>
+      <c r="T14" s="8"/>
+      <c r="U14" s="8"/>
+      <c r="V14" s="8"/>
+      <c r="W14" s="8"/>
+      <c r="X14" s="3"/>
+      <c r="Y14" s="3"/>
     </row>
     <row r="15" spans="2:27" x14ac:dyDescent="0.3">
-      <c r="B15" s="19"/>
-      <c r="C15" s="19"/>
-      <c r="D15" s="8"/>
-      <c r="E15" s="8"/>
-      <c r="F15" s="8"/>
-      <c r="G15" s="9"/>
-      <c r="H15" s="8"/>
-      <c r="I15" s="8"/>
-      <c r="J15" s="8"/>
-      <c r="K15" s="9"/>
-      <c r="L15" s="8"/>
-      <c r="M15" s="8"/>
-      <c r="N15" s="8"/>
-      <c r="O15" s="9"/>
-      <c r="P15" s="9"/>
-      <c r="Q15" s="9"/>
-      <c r="R15" s="9"/>
-      <c r="S15" s="9"/>
-      <c r="T15" s="9"/>
-      <c r="U15" s="9"/>
-      <c r="V15" s="9"/>
-      <c r="W15" s="9"/>
-      <c r="X15" s="4"/>
-      <c r="Y15" s="4"/>
+      <c r="B15" s="28"/>
+      <c r="C15" s="28"/>
+      <c r="D15" s="7"/>
+      <c r="E15" s="7"/>
+      <c r="F15" s="7"/>
+      <c r="G15" s="8"/>
+      <c r="H15" s="7"/>
+      <c r="I15" s="7"/>
+      <c r="J15" s="7"/>
+      <c r="K15" s="8"/>
+      <c r="L15" s="7"/>
+      <c r="M15" s="7"/>
+      <c r="N15" s="7"/>
+      <c r="O15" s="8"/>
+      <c r="P15" s="8"/>
+      <c r="Q15" s="8"/>
+      <c r="R15" s="8"/>
+      <c r="S15" s="8"/>
+      <c r="T15" s="8"/>
+      <c r="U15" s="8"/>
+      <c r="V15" s="8"/>
+      <c r="W15" s="8"/>
+      <c r="X15" s="3"/>
+      <c r="Y15" s="3"/>
     </row>
     <row r="16" spans="2:27" x14ac:dyDescent="0.3">
-      <c r="B16" s="21" t="s">
+      <c r="B16" s="15" t="s">
         <v>10</v>
       </c>
-      <c r="C16" s="22"/>
-      <c r="D16" s="8"/>
-      <c r="E16" s="8"/>
-      <c r="F16" s="8"/>
-      <c r="G16" s="9"/>
-      <c r="H16" s="8"/>
-      <c r="I16" s="8"/>
-      <c r="J16" s="8"/>
-      <c r="K16" s="9"/>
-      <c r="L16" s="8"/>
-      <c r="M16" s="8"/>
-      <c r="N16" s="8"/>
-      <c r="O16" s="9"/>
-      <c r="P16" s="6"/>
-      <c r="Q16" s="6"/>
-      <c r="R16" s="6"/>
-      <c r="S16" s="6"/>
-      <c r="T16" s="9"/>
-      <c r="U16" s="9"/>
-      <c r="V16" s="9"/>
-      <c r="W16" s="9"/>
-      <c r="X16" s="4"/>
-      <c r="Y16" s="4"/>
+      <c r="C16" s="16"/>
+      <c r="D16" s="7"/>
+      <c r="E16" s="7"/>
+      <c r="F16" s="7"/>
+      <c r="G16" s="8"/>
+      <c r="H16" s="7"/>
+      <c r="I16" s="7"/>
+      <c r="J16" s="7"/>
+      <c r="K16" s="8"/>
+      <c r="L16" s="7"/>
+      <c r="M16" s="7"/>
+      <c r="N16" s="7"/>
+      <c r="O16" s="8"/>
+      <c r="P16" s="5"/>
+      <c r="Q16" s="5"/>
+      <c r="R16" s="5"/>
+      <c r="S16" s="5"/>
+      <c r="T16" s="8"/>
+      <c r="U16" s="8"/>
+      <c r="V16" s="8"/>
+      <c r="W16" s="8"/>
+      <c r="X16" s="3"/>
+      <c r="Y16" s="3"/>
     </row>
     <row r="17" spans="2:25" x14ac:dyDescent="0.3">
-      <c r="B17" s="28"/>
-      <c r="C17" s="29"/>
-      <c r="D17" s="8"/>
-      <c r="E17" s="8"/>
-      <c r="F17" s="8"/>
-      <c r="G17" s="9"/>
-      <c r="H17" s="8"/>
-      <c r="I17" s="8"/>
-      <c r="J17" s="8"/>
-      <c r="K17" s="9"/>
-      <c r="L17" s="8"/>
-      <c r="M17" s="8"/>
-      <c r="N17" s="8"/>
-      <c r="O17" s="9"/>
-      <c r="P17" s="9"/>
-      <c r="Q17" s="9"/>
-      <c r="R17" s="9"/>
-      <c r="S17" s="9"/>
-      <c r="T17" s="9"/>
-      <c r="U17" s="9"/>
-      <c r="V17" s="9"/>
-      <c r="W17" s="9"/>
-      <c r="X17" s="4"/>
-      <c r="Y17" s="4"/>
+      <c r="B17" s="22"/>
+      <c r="C17" s="23"/>
+      <c r="D17" s="7"/>
+      <c r="E17" s="7"/>
+      <c r="F17" s="7"/>
+      <c r="G17" s="8"/>
+      <c r="H17" s="7"/>
+      <c r="I17" s="7"/>
+      <c r="J17" s="7"/>
+      <c r="K17" s="8"/>
+      <c r="L17" s="7"/>
+      <c r="M17" s="7"/>
+      <c r="N17" s="7"/>
+      <c r="O17" s="8"/>
+      <c r="P17" s="8"/>
+      <c r="Q17" s="8"/>
+      <c r="R17" s="8"/>
+      <c r="S17" s="8"/>
+      <c r="T17" s="8"/>
+      <c r="U17" s="8"/>
+      <c r="V17" s="8"/>
+      <c r="W17" s="8"/>
+      <c r="X17" s="3"/>
+      <c r="Y17" s="3"/>
     </row>
     <row r="18" spans="2:25" x14ac:dyDescent="0.3">
-      <c r="B18" s="28"/>
-      <c r="C18" s="29"/>
-      <c r="D18" s="8"/>
-      <c r="E18" s="8"/>
-      <c r="F18" s="8"/>
-      <c r="G18" s="9"/>
-      <c r="H18" s="8"/>
-      <c r="I18" s="8"/>
-      <c r="J18" s="8"/>
-      <c r="K18" s="9"/>
-      <c r="L18" s="8"/>
-      <c r="M18" s="8"/>
-      <c r="N18" s="8"/>
-      <c r="O18" s="9"/>
-      <c r="P18" s="9"/>
-      <c r="Q18" s="9"/>
-      <c r="R18" s="9"/>
-      <c r="S18" s="9"/>
-      <c r="T18" s="9"/>
-      <c r="U18" s="9"/>
-      <c r="V18" s="9"/>
-      <c r="W18" s="9"/>
-      <c r="X18" s="4"/>
-      <c r="Y18" s="4"/>
+      <c r="B18" s="22"/>
+      <c r="C18" s="23"/>
+      <c r="D18" s="7"/>
+      <c r="E18" s="7"/>
+      <c r="F18" s="7"/>
+      <c r="G18" s="8"/>
+      <c r="H18" s="7"/>
+      <c r="I18" s="7"/>
+      <c r="J18" s="7"/>
+      <c r="K18" s="8"/>
+      <c r="L18" s="7"/>
+      <c r="M18" s="7"/>
+      <c r="N18" s="7"/>
+      <c r="O18" s="8"/>
+      <c r="P18" s="8"/>
+      <c r="Q18" s="8"/>
+      <c r="R18" s="8"/>
+      <c r="S18" s="8"/>
+      <c r="T18" s="8"/>
+      <c r="U18" s="8"/>
+      <c r="V18" s="8"/>
+      <c r="W18" s="8"/>
+      <c r="X18" s="3"/>
+      <c r="Y18" s="3"/>
     </row>
     <row r="19" spans="2:25" x14ac:dyDescent="0.3">
-      <c r="B19" s="28"/>
-      <c r="C19" s="29"/>
-      <c r="D19" s="8"/>
-      <c r="E19" s="8"/>
-      <c r="F19" s="8"/>
-      <c r="G19" s="9"/>
-      <c r="H19" s="8"/>
-      <c r="I19" s="8"/>
-      <c r="J19" s="8"/>
-      <c r="K19" s="9"/>
-      <c r="L19" s="8"/>
-      <c r="M19" s="8"/>
-      <c r="N19" s="8"/>
-      <c r="O19" s="9"/>
-      <c r="P19" s="9"/>
-      <c r="Q19" s="9"/>
-      <c r="R19" s="9"/>
-      <c r="S19" s="9"/>
-      <c r="T19" s="9"/>
-      <c r="U19" s="9"/>
-      <c r="V19" s="9"/>
-      <c r="W19" s="9"/>
-      <c r="X19" s="4"/>
-      <c r="Y19" s="4"/>
+      <c r="B19" s="22"/>
+      <c r="C19" s="23"/>
+      <c r="D19" s="7"/>
+      <c r="E19" s="7"/>
+      <c r="F19" s="7"/>
+      <c r="G19" s="8"/>
+      <c r="H19" s="7"/>
+      <c r="I19" s="7"/>
+      <c r="J19" s="7"/>
+      <c r="K19" s="8"/>
+      <c r="L19" s="7"/>
+      <c r="M19" s="7"/>
+      <c r="N19" s="7"/>
+      <c r="O19" s="8"/>
+      <c r="P19" s="8"/>
+      <c r="Q19" s="8"/>
+      <c r="R19" s="8"/>
+      <c r="S19" s="8"/>
+      <c r="T19" s="8"/>
+      <c r="U19" s="8"/>
+      <c r="V19" s="8"/>
+      <c r="W19" s="8"/>
+      <c r="X19" s="3"/>
+      <c r="Y19" s="3"/>
     </row>
     <row r="20" spans="2:25" x14ac:dyDescent="0.3">
-      <c r="B20" s="28"/>
-      <c r="C20" s="29"/>
-      <c r="D20" s="8"/>
-      <c r="E20" s="8"/>
-      <c r="F20" s="8"/>
-      <c r="G20" s="9"/>
-      <c r="H20" s="8"/>
-      <c r="I20" s="8"/>
-      <c r="J20" s="8"/>
-      <c r="K20" s="9"/>
-      <c r="L20" s="8"/>
-      <c r="M20" s="8"/>
-      <c r="N20" s="8"/>
-      <c r="O20" s="9"/>
-      <c r="P20" s="9"/>
-      <c r="Q20" s="9"/>
-      <c r="R20" s="9"/>
-      <c r="S20" s="9"/>
-      <c r="T20" s="9"/>
-      <c r="U20" s="9"/>
-      <c r="V20" s="9"/>
-      <c r="W20" s="9"/>
-      <c r="X20" s="4"/>
-      <c r="Y20" s="4"/>
+      <c r="B20" s="22"/>
+      <c r="C20" s="23"/>
+      <c r="D20" s="7"/>
+      <c r="E20" s="7"/>
+      <c r="F20" s="7"/>
+      <c r="G20" s="8"/>
+      <c r="H20" s="7"/>
+      <c r="I20" s="7"/>
+      <c r="J20" s="7"/>
+      <c r="K20" s="8"/>
+      <c r="L20" s="7"/>
+      <c r="M20" s="7"/>
+      <c r="N20" s="7"/>
+      <c r="O20" s="8"/>
+      <c r="P20" s="8"/>
+      <c r="Q20" s="8"/>
+      <c r="R20" s="8"/>
+      <c r="S20" s="8"/>
+      <c r="T20" s="8"/>
+      <c r="U20" s="8"/>
+      <c r="V20" s="8"/>
+      <c r="W20" s="8"/>
+      <c r="X20" s="3"/>
+      <c r="Y20" s="3"/>
     </row>
     <row r="21" spans="2:25" x14ac:dyDescent="0.3">
-      <c r="B21" s="17"/>
-      <c r="C21" s="17"/>
-      <c r="D21" s="8"/>
-      <c r="E21" s="8"/>
-      <c r="F21" s="8"/>
-      <c r="G21" s="9"/>
-      <c r="H21" s="9"/>
-      <c r="I21" s="9"/>
-      <c r="J21" s="9"/>
-      <c r="K21" s="9"/>
-      <c r="L21" s="9"/>
-      <c r="M21" s="9"/>
-      <c r="N21" s="9"/>
-      <c r="O21" s="9"/>
-      <c r="P21" s="9"/>
-      <c r="Q21" s="9"/>
-      <c r="R21" s="9"/>
-      <c r="S21" s="9"/>
-      <c r="T21" s="9"/>
-      <c r="U21" s="9"/>
-      <c r="V21" s="9"/>
-      <c r="W21" s="9"/>
-      <c r="X21" s="4"/>
-      <c r="Y21" s="4"/>
+      <c r="B21" s="26"/>
+      <c r="C21" s="26"/>
+      <c r="D21" s="7"/>
+      <c r="E21" s="7"/>
+      <c r="F21" s="7"/>
+      <c r="G21" s="8"/>
+      <c r="H21" s="8"/>
+      <c r="I21" s="8"/>
+      <c r="J21" s="8"/>
+      <c r="K21" s="8"/>
+      <c r="L21" s="8"/>
+      <c r="M21" s="8"/>
+      <c r="N21" s="8"/>
+      <c r="O21" s="8"/>
+      <c r="P21" s="8"/>
+      <c r="Q21" s="8"/>
+      <c r="R21" s="8"/>
+      <c r="S21" s="8"/>
+      <c r="T21" s="8"/>
+      <c r="U21" s="8"/>
+      <c r="V21" s="8"/>
+      <c r="W21" s="8"/>
+      <c r="X21" s="3"/>
+      <c r="Y21" s="3"/>
     </row>
     <row r="22" spans="2:25" x14ac:dyDescent="0.3">
-      <c r="B22" s="21" t="s">
+      <c r="B22" s="15" t="s">
         <v>11</v>
       </c>
-      <c r="C22" s="22"/>
-      <c r="D22" s="8"/>
-      <c r="E22" s="8"/>
-      <c r="F22" s="8"/>
-      <c r="G22" s="9"/>
-      <c r="H22" s="9"/>
-      <c r="I22" s="9"/>
-      <c r="J22" s="9"/>
-      <c r="K22" s="9"/>
-      <c r="L22" s="9"/>
-      <c r="M22" s="9"/>
-      <c r="N22" s="9"/>
-      <c r="O22" s="9"/>
-      <c r="P22" s="9"/>
-      <c r="Q22" s="9"/>
-      <c r="R22" s="9"/>
-      <c r="S22" s="9"/>
-      <c r="T22" s="6"/>
-      <c r="U22" s="6"/>
-      <c r="V22" s="6"/>
-      <c r="W22" s="6"/>
-      <c r="X22" s="4"/>
-      <c r="Y22" s="4"/>
+      <c r="C22" s="16"/>
+      <c r="D22" s="7"/>
+      <c r="E22" s="7"/>
+      <c r="F22" s="7"/>
+      <c r="G22" s="8"/>
+      <c r="H22" s="8"/>
+      <c r="I22" s="8"/>
+      <c r="J22" s="8"/>
+      <c r="K22" s="8"/>
+      <c r="L22" s="8"/>
+      <c r="M22" s="8"/>
+      <c r="N22" s="8"/>
+      <c r="O22" s="8"/>
+      <c r="P22" s="8"/>
+      <c r="Q22" s="8"/>
+      <c r="R22" s="8"/>
+      <c r="S22" s="8"/>
+      <c r="T22" s="5"/>
+      <c r="U22" s="5"/>
+      <c r="V22" s="5"/>
+      <c r="W22" s="5"/>
+      <c r="X22" s="3"/>
+      <c r="Y22" s="3"/>
     </row>
     <row r="23" spans="2:25" x14ac:dyDescent="0.3">
-      <c r="B23" s="28"/>
-      <c r="C23" s="29"/>
-      <c r="D23" s="8"/>
-      <c r="E23" s="8"/>
-      <c r="F23" s="8"/>
-      <c r="G23" s="9"/>
-      <c r="H23" s="9"/>
-      <c r="I23" s="9"/>
-      <c r="J23" s="9"/>
-      <c r="K23" s="9"/>
-      <c r="L23" s="9"/>
-      <c r="M23" s="9"/>
-      <c r="N23" s="9"/>
-      <c r="O23" s="9"/>
-      <c r="P23" s="9"/>
-      <c r="Q23" s="9"/>
-      <c r="R23" s="9"/>
-      <c r="S23" s="9"/>
-      <c r="T23" s="9"/>
-      <c r="U23" s="9"/>
-      <c r="V23" s="9"/>
-      <c r="W23" s="9"/>
-      <c r="X23" s="4"/>
-      <c r="Y23" s="4"/>
+      <c r="B23" s="22"/>
+      <c r="C23" s="23"/>
+      <c r="D23" s="7"/>
+      <c r="E23" s="7"/>
+      <c r="F23" s="7"/>
+      <c r="G23" s="8"/>
+      <c r="H23" s="8"/>
+      <c r="I23" s="8"/>
+      <c r="J23" s="8"/>
+      <c r="K23" s="8"/>
+      <c r="L23" s="8"/>
+      <c r="M23" s="8"/>
+      <c r="N23" s="8"/>
+      <c r="O23" s="8"/>
+      <c r="P23" s="8"/>
+      <c r="Q23" s="8"/>
+      <c r="R23" s="8"/>
+      <c r="S23" s="8"/>
+      <c r="T23" s="8"/>
+      <c r="U23" s="8"/>
+      <c r="V23" s="8"/>
+      <c r="W23" s="8"/>
+      <c r="X23" s="3"/>
+      <c r="Y23" s="3"/>
     </row>
     <row r="24" spans="2:25" x14ac:dyDescent="0.3">
-      <c r="B24" s="28"/>
-      <c r="C24" s="29"/>
-      <c r="D24" s="8"/>
-      <c r="E24" s="8"/>
-      <c r="F24" s="8"/>
-      <c r="G24" s="9"/>
-      <c r="H24" s="9"/>
-      <c r="I24" s="9"/>
-      <c r="J24" s="9"/>
-      <c r="K24" s="9"/>
-      <c r="L24" s="9"/>
-      <c r="M24" s="9"/>
-      <c r="N24" s="9"/>
-      <c r="O24" s="9"/>
-      <c r="P24" s="9"/>
-      <c r="Q24" s="9"/>
-      <c r="R24" s="9"/>
-      <c r="S24" s="9"/>
-      <c r="T24" s="9"/>
-      <c r="U24" s="9"/>
-      <c r="V24" s="9"/>
-      <c r="W24" s="9"/>
-      <c r="X24" s="4"/>
-      <c r="Y24" s="4"/>
+      <c r="B24" s="22"/>
+      <c r="C24" s="23"/>
+      <c r="D24" s="7"/>
+      <c r="E24" s="7"/>
+      <c r="F24" s="7"/>
+      <c r="G24" s="8"/>
+      <c r="H24" s="8"/>
+      <c r="I24" s="8"/>
+      <c r="J24" s="8"/>
+      <c r="K24" s="8"/>
+      <c r="L24" s="8"/>
+      <c r="M24" s="8"/>
+      <c r="N24" s="8"/>
+      <c r="O24" s="8"/>
+      <c r="P24" s="8"/>
+      <c r="Q24" s="8"/>
+      <c r="R24" s="8"/>
+      <c r="S24" s="8"/>
+      <c r="T24" s="8"/>
+      <c r="U24" s="8"/>
+      <c r="V24" s="8"/>
+      <c r="W24" s="8"/>
+      <c r="X24" s="3"/>
+      <c r="Y24" s="3"/>
     </row>
     <row r="25" spans="2:25" x14ac:dyDescent="0.3">
-      <c r="B25" s="28"/>
-      <c r="C25" s="29"/>
-      <c r="D25" s="8"/>
-      <c r="E25" s="8"/>
-      <c r="F25" s="8"/>
-      <c r="G25" s="9"/>
-      <c r="H25" s="9"/>
-      <c r="I25" s="9"/>
-      <c r="J25" s="9"/>
-      <c r="K25" s="9"/>
-      <c r="L25" s="9"/>
-      <c r="M25" s="9"/>
-      <c r="N25" s="9"/>
-      <c r="O25" s="9"/>
-      <c r="P25" s="9"/>
-      <c r="Q25" s="9"/>
-      <c r="R25" s="9"/>
-      <c r="S25" s="9"/>
-      <c r="T25" s="9"/>
-      <c r="U25" s="9"/>
-      <c r="V25" s="9"/>
-      <c r="W25" s="9"/>
-      <c r="X25" s="4"/>
-      <c r="Y25" s="4"/>
+      <c r="B25" s="22"/>
+      <c r="C25" s="23"/>
+      <c r="D25" s="7"/>
+      <c r="E25" s="7"/>
+      <c r="F25" s="7"/>
+      <c r="G25" s="8"/>
+      <c r="H25" s="8"/>
+      <c r="I25" s="8"/>
+      <c r="J25" s="8"/>
+      <c r="K25" s="8"/>
+      <c r="L25" s="8"/>
+      <c r="M25" s="8"/>
+      <c r="N25" s="8"/>
+      <c r="O25" s="8"/>
+      <c r="P25" s="8"/>
+      <c r="Q25" s="8"/>
+      <c r="R25" s="8"/>
+      <c r="S25" s="8"/>
+      <c r="T25" s="8"/>
+      <c r="U25" s="8"/>
+      <c r="V25" s="8"/>
+      <c r="W25" s="8"/>
+      <c r="X25" s="3"/>
+      <c r="Y25" s="3"/>
     </row>
     <row r="26" spans="2:25" x14ac:dyDescent="0.3">
-      <c r="B26" s="28"/>
-      <c r="C26" s="29"/>
-      <c r="D26" s="8"/>
-      <c r="E26" s="8"/>
-      <c r="F26" s="8"/>
-      <c r="G26" s="9"/>
-      <c r="H26" s="9"/>
-      <c r="I26" s="9"/>
-      <c r="J26" s="9"/>
-      <c r="K26" s="9"/>
-      <c r="L26" s="9"/>
-      <c r="M26" s="9"/>
-      <c r="N26" s="9"/>
-      <c r="O26" s="9"/>
-      <c r="P26" s="9"/>
-      <c r="Q26" s="9"/>
-      <c r="R26" s="9"/>
-      <c r="S26" s="9"/>
-      <c r="T26" s="9"/>
-      <c r="U26" s="9"/>
-      <c r="V26" s="9"/>
-      <c r="W26" s="9"/>
-      <c r="X26" s="4"/>
-      <c r="Y26" s="4"/>
+      <c r="B26" s="22"/>
+      <c r="C26" s="23"/>
+      <c r="D26" s="7"/>
+      <c r="E26" s="7"/>
+      <c r="F26" s="7"/>
+      <c r="G26" s="8"/>
+      <c r="H26" s="8"/>
+      <c r="I26" s="8"/>
+      <c r="J26" s="8"/>
+      <c r="K26" s="8"/>
+      <c r="L26" s="8"/>
+      <c r="M26" s="8"/>
+      <c r="N26" s="8"/>
+      <c r="O26" s="8"/>
+      <c r="P26" s="8"/>
+      <c r="Q26" s="8"/>
+      <c r="R26" s="8"/>
+      <c r="S26" s="8"/>
+      <c r="T26" s="8"/>
+      <c r="U26" s="8"/>
+      <c r="V26" s="8"/>
+      <c r="W26" s="8"/>
+      <c r="X26" s="3"/>
+      <c r="Y26" s="3"/>
     </row>
     <row r="27" spans="2:25" x14ac:dyDescent="0.3">
-      <c r="B27" s="28"/>
-      <c r="C27" s="29"/>
-      <c r="D27" s="8"/>
-      <c r="E27" s="8"/>
-      <c r="F27" s="8"/>
-      <c r="G27" s="9"/>
-      <c r="H27" s="9"/>
-      <c r="I27" s="9"/>
-      <c r="J27" s="9"/>
-      <c r="K27" s="9"/>
-      <c r="L27" s="9"/>
-      <c r="M27" s="9"/>
-      <c r="N27" s="9"/>
-      <c r="O27" s="9"/>
-      <c r="P27" s="9"/>
-      <c r="Q27" s="9"/>
-      <c r="R27" s="9"/>
-      <c r="S27" s="9"/>
-      <c r="T27" s="9"/>
-      <c r="U27" s="9"/>
-      <c r="V27" s="9"/>
-      <c r="W27" s="9"/>
-      <c r="X27" s="4"/>
-      <c r="Y27" s="4"/>
+      <c r="B27" s="22"/>
+      <c r="C27" s="23"/>
+      <c r="D27" s="7"/>
+      <c r="E27" s="7"/>
+      <c r="F27" s="7"/>
+      <c r="G27" s="8"/>
+      <c r="H27" s="8"/>
+      <c r="I27" s="8"/>
+      <c r="J27" s="8"/>
+      <c r="K27" s="8"/>
+      <c r="L27" s="8"/>
+      <c r="M27" s="8"/>
+      <c r="N27" s="8"/>
+      <c r="O27" s="8"/>
+      <c r="P27" s="8"/>
+      <c r="Q27" s="8"/>
+      <c r="R27" s="8"/>
+      <c r="S27" s="8"/>
+      <c r="T27" s="8"/>
+      <c r="U27" s="8"/>
+      <c r="V27" s="8"/>
+      <c r="W27" s="8"/>
+      <c r="X27" s="3"/>
+      <c r="Y27" s="3"/>
     </row>
     <row r="28" spans="2:25" x14ac:dyDescent="0.3">
-      <c r="B28" s="10"/>
-      <c r="C28" s="11"/>
-      <c r="D28" s="8"/>
-      <c r="E28" s="8"/>
-      <c r="F28" s="8"/>
-      <c r="G28" s="9"/>
-      <c r="H28" s="9"/>
-      <c r="I28" s="9"/>
-      <c r="J28" s="9"/>
-      <c r="K28" s="9"/>
-      <c r="L28" s="9"/>
-      <c r="M28" s="9"/>
-      <c r="N28" s="9"/>
-      <c r="O28" s="9"/>
-      <c r="P28" s="9"/>
-      <c r="Q28" s="9"/>
-      <c r="R28" s="9"/>
-      <c r="S28" s="9"/>
-      <c r="T28" s="9"/>
-      <c r="U28" s="9"/>
-      <c r="V28" s="9"/>
-      <c r="W28" s="9"/>
-      <c r="X28" s="4"/>
-      <c r="Y28" s="4"/>
+      <c r="B28" s="9"/>
+      <c r="C28" s="10"/>
+      <c r="D28" s="7"/>
+      <c r="E28" s="7"/>
+      <c r="F28" s="7"/>
+      <c r="G28" s="8"/>
+      <c r="H28" s="8"/>
+      <c r="I28" s="8"/>
+      <c r="J28" s="8"/>
+      <c r="K28" s="8"/>
+      <c r="L28" s="8"/>
+      <c r="M28" s="8"/>
+      <c r="N28" s="8"/>
+      <c r="O28" s="8"/>
+      <c r="P28" s="8"/>
+      <c r="Q28" s="8"/>
+      <c r="R28" s="8"/>
+      <c r="S28" s="8"/>
+      <c r="T28" s="8"/>
+      <c r="U28" s="8"/>
+      <c r="V28" s="8"/>
+      <c r="W28" s="8"/>
+      <c r="X28" s="3"/>
+      <c r="Y28" s="3"/>
     </row>
   </sheetData>
   <mergeCells count="27">
+    <mergeCell ref="B11:C11"/>
+    <mergeCell ref="B21:C21"/>
+    <mergeCell ref="B6:C6"/>
+    <mergeCell ref="B12:C12"/>
+    <mergeCell ref="B13:C13"/>
+    <mergeCell ref="B14:C14"/>
+    <mergeCell ref="B15:C15"/>
+    <mergeCell ref="B7:C7"/>
+    <mergeCell ref="B8:C8"/>
+    <mergeCell ref="B9:C9"/>
+    <mergeCell ref="B16:C16"/>
     <mergeCell ref="B22:C22"/>
     <mergeCell ref="X5:Y5"/>
     <mergeCell ref="L5:O5"/>
@@ -1377,17 +1388,6 @@
     <mergeCell ref="D5:G5"/>
     <mergeCell ref="H5:K5"/>
     <mergeCell ref="T5:W5"/>
-    <mergeCell ref="B11:C11"/>
-    <mergeCell ref="B21:C21"/>
-    <mergeCell ref="B6:C6"/>
-    <mergeCell ref="B12:C12"/>
-    <mergeCell ref="B13:C13"/>
-    <mergeCell ref="B14:C14"/>
-    <mergeCell ref="B15:C15"/>
-    <mergeCell ref="B7:C7"/>
-    <mergeCell ref="B8:C8"/>
-    <mergeCell ref="B9:C9"/>
-    <mergeCell ref="B16:C16"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
